--- a/OpenxmlConsoleApplication/bin/Debug/O&M_TestSheet.xlsx
+++ b/OpenxmlConsoleApplication/bin/Debug/O&M_TestSheet.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpinkard\Documents\Visual Studio 2015\Projects\ExcelChartTool\OpenxmlConsoleApplication\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpinkard\Documents\visual studio 2015\Projects\ExcelChartTool\OpenxmlConsoleApplication\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10020" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="RAW Data_all" sheetId="2" r:id="rId1"/>
-    <sheet name="WeeklyFlowRates" sheetId="3" r:id="rId2"/>
-    <sheet name="SumVol" sheetId="4" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW Data_all'!$A$1:$D$770</definedName>
@@ -327,3985 +325,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Injection</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>('[1]Weekly Inj_Rates'!$H$15,'[1]Weekly Inj_Rates'!$H$34,'[1]Weekly Inj_Rates'!$H$53,'[1]Weekly Inj_Rates'!$H$76,'[1]Weekly Inj_Rates'!$H$91,'[1]Weekly Inj_Rates'!$H$106,'[1]Weekly Inj_Rates'!$H$129,'[1]Weekly Inj_Rates'!$H$144,'[1]Weekly Inj_Rates'!$H$159,'[1]Weekly Inj_Rates'!$H$173,'[1]Weekly Inj_Rates'!$H$184,'[1]Weekly Inj_Rates'!$H$199,'[1]Weekly Inj_Rates'!$H$214,'[1]Weekly Inj_Rates'!$H$225,'[1]Weekly Inj_Rates'!$H$236,'[1]Weekly Inj_Rates'!$H$273,'[1]Weekly Inj_Rates'!$H$288,'[1]Weekly Inj_Rates'!$H$299,'[1]Weekly Inj_Rates'!$H$314,'[1]Weekly Inj_Rates'!$H$329,'[1]Weekly Inj_Rates'!$H$344,'[1]Weekly Inj_Rates'!$H$359,'[1]Weekly Inj_Rates'!$H$370,'[1]Weekly Inj_Rates'!$H$381,'[1]Weekly Inj_Rates'!$H$396,'[1]Weekly Inj_Rates'!$H$411,'[1]Weekly Inj_Rates'!$H$422,'[1]Weekly Inj_Rates'!$H$433,'[1]Weekly Inj_Rates'!$H$457,'[1]Weekly Inj_Rates'!$H$474,'[1]Weekly Inj_Rates'!$H$490,'[1]Weekly Inj_Rates'!$H$502,'[1]Weekly Inj_Rates'!$H$512,'[1]Weekly Inj_Rates'!$H$524,'[1]Weekly Inj_Rates'!$H$540,'[1]Weekly Inj_Rates'!$H$556,'[1]Weekly Inj_Rates'!$H$572,'[1]Weekly Inj_Rates'!$H$584,'[1]Weekly Inj_Rates'!$H$596,'[1]Weekly Inj_Rates'!$H$608)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.697916666664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.337500000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.321527777778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.665972222225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.411805555559</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.396527777775</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.379861111112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.574999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.348611111112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.527777777781</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.645833333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.334027777775</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.444444444445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.343055555553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.372916666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.630555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.60833333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42429.363888888889</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42436.354166666664</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.369444444441</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.690972222219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('[1]Weekly Inj_Rates'!$F$15,'[1]Weekly Inj_Rates'!$F$34,'[1]Weekly Inj_Rates'!$F$53,'[1]Weekly Inj_Rates'!$F$76,'[1]Weekly Inj_Rates'!$F$91,'[1]Weekly Inj_Rates'!$F$106,'[1]Weekly Inj_Rates'!$F$129,'[1]Weekly Inj_Rates'!$F$144,'[1]Weekly Inj_Rates'!$F$159,'[1]Weekly Inj_Rates'!$F$174,'[1]Weekly Inj_Rates'!$F$185,'[1]Weekly Inj_Rates'!$F$200,'[1]Weekly Inj_Rates'!$F$215,'[1]Weekly Inj_Rates'!$F$226,'[1]Weekly Inj_Rates'!$F$237,'[1]Weekly Inj_Rates'!$F$273,'[1]Weekly Inj_Rates'!$F$288,'[1]Weekly Inj_Rates'!$F$299,'[1]Weekly Inj_Rates'!$F$314,'[1]Weekly Inj_Rates'!$F$329,'[1]Weekly Inj_Rates'!$F$344,'[1]Weekly Inj_Rates'!$F$359,'[1]Weekly Inj_Rates'!$F$370,'[1]Weekly Inj_Rates'!$F$381,'[1]Weekly Inj_Rates'!$F$396,'[1]Weekly Inj_Rates'!$F$411,'[1]Weekly Inj_Rates'!$F$422,'[1]Weekly Inj_Rates'!$F$433,'[1]Weekly Inj_Rates'!$F$457,'[1]Weekly Inj_Rates'!$F$474,'[1]Weekly Inj_Rates'!$F$490,'[1]Weekly Inj_Rates'!$F$502,'[1]Weekly Inj_Rates'!$F$512,'[1]Weekly Inj_Rates'!$F$524,'[1]Weekly Inj_Rates'!$F$540,'[1]Weekly Inj_Rates'!$F$556,'[1]Weekly Inj_Rates'!$F$572,'[1]Weekly Inj_Rates'!$F$584,'[1]Weekly Inj_Rates'!$F$596,'[1]Weekly Inj_Rates'!$F$608)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>2.7821275199704827</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.2738590871807975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.010187636507489</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8873844598842138</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.170580026137818</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10.179576465248022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9035226872961455</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6505406439582639</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.04225189703266</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.7651240421730465</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.9878114225998189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.573319233362334</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.800192189557835</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.112383850729181</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.9515304791015975</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.470052459141662</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.417876492873519</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>10.021841692803909</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.281883257078803</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.2454895291370374</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2552420037894336</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.8309586186339732</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.3609436559622345</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.2161212072577552</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.017457407124313</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10.329247811635588</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.6209627059695375</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.6400200693113618</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.7465973406725475</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.8992782515202009</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.6994729205628918</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.9441916008219877</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.9442490747946204</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0652264007660497</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.6023794035489161</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.5930296352042888</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.7476274898294957</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.642572161952504</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.5059476906740557</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>10.488972485560243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5AC9-435B-A402-5E3C89F8E9A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Extraction</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>('[1]Weekly Inj_Rates'!$H$15,'[1]Weekly Inj_Rates'!$H$34,'[1]Weekly Inj_Rates'!$H$53,'[1]Weekly Inj_Rates'!$H$76,'[1]Weekly Inj_Rates'!$H$91,'[1]Weekly Inj_Rates'!$H$106,'[1]Weekly Inj_Rates'!$H$129,'[1]Weekly Inj_Rates'!$H$144,'[1]Weekly Inj_Rates'!$H$159,'[1]Weekly Inj_Rates'!$H$173,'[1]Weekly Inj_Rates'!$H$184,'[1]Weekly Inj_Rates'!$H$199,'[1]Weekly Inj_Rates'!$H$214,'[1]Weekly Inj_Rates'!$H$225,'[1]Weekly Inj_Rates'!$H$236,'[1]Weekly Inj_Rates'!$H$273,'[1]Weekly Inj_Rates'!$H$288,'[1]Weekly Inj_Rates'!$H$299,'[1]Weekly Inj_Rates'!$H$314,'[1]Weekly Inj_Rates'!$H$329,'[1]Weekly Inj_Rates'!$H$344,'[1]Weekly Inj_Rates'!$H$359,'[1]Weekly Inj_Rates'!$H$370,'[1]Weekly Inj_Rates'!$H$381,'[1]Weekly Inj_Rates'!$H$396,'[1]Weekly Inj_Rates'!$H$411,'[1]Weekly Inj_Rates'!$H$422,'[1]Weekly Inj_Rates'!$H$433,'[1]Weekly Inj_Rates'!$H$457,'[1]Weekly Inj_Rates'!$H$474,'[1]Weekly Inj_Rates'!$H$490,'[1]Weekly Inj_Rates'!$H$502,'[1]Weekly Inj_Rates'!$H$512,'[1]Weekly Inj_Rates'!$H$524,'[1]Weekly Inj_Rates'!$H$540,'[1]Weekly Inj_Rates'!$H$556,'[1]Weekly Inj_Rates'!$H$572,'[1]Weekly Inj_Rates'!$H$584,'[1]Weekly Inj_Rates'!$H$596,'[1]Weekly Inj_Rates'!$H$608)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.697916666664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.337500000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.321527777778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.665972222225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.411805555559</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.396527777775</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.379861111112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.574999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.348611111112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.527777777781</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.645833333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.334027777775</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.444444444445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.343055555553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.372916666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.630555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.60833333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42429.363888888889</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42436.354166666664</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.369444444441</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.690972222219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('[1]Weekly Ext_Rates'!$G$24,'[1]Weekly Ext_Rates'!$G$43,'[1]Weekly Ext_Rates'!$G$62,'[1]Weekly Ext_Rates'!$G$81,'[1]Weekly Ext_Rates'!$G$96,'[1]Weekly Ext_Rates'!$G$115,'[1]Weekly Ext_Rates'!$G$157,'[1]Weekly Ext_Rates'!$G$182,'[1]Weekly Ext_Rates'!$G$206,'[1]Weekly Ext_Rates'!$G$233,'[1]Weekly Ext_Rates'!$G$252,'[1]Weekly Ext_Rates'!$G$276,'[1]Weekly Ext_Rates'!$G$303,'[1]Weekly Ext_Rates'!$G$322,'[1]Weekly Ext_Rates'!$G$341,'[1]Weekly Ext_Rates'!$G$409,'[1]Weekly Ext_Rates'!$G$436,'[1]Weekly Ext_Rates'!$G$463,'[1]Weekly Ext_Rates'!$G$490,'[1]Weekly Ext_Rates'!$G$517,'[1]Weekly Ext_Rates'!$G$544,'[1]Weekly Ext_Rates'!$G$571,'[1]Weekly Ext_Rates'!$G$590,'[1]Weekly Ext_Rates'!$G$601,'[1]Weekly Ext_Rates'!$G$612,'[1]Weekly Ext_Rates'!$G$623,'[1]Weekly Ext_Rates'!$G$634,'[1]Weekly Ext_Rates'!$G$644,'[1]Weekly Ext_Rates'!$G$687,'[1]Weekly Ext_Rates'!$G$698,'[1]Weekly Ext_Rates'!$G$710,'[1]Weekly Ext_Rates'!$G$722,'[1]Weekly Ext_Rates'!$G$734,'[1]Weekly Ext_Rates'!$G$746,'[1]Weekly Ext_Rates'!$G$758,'[1]Weekly Ext_Rates'!$G$785,'[1]Weekly Ext_Rates'!$G$813,'[1]Weekly Ext_Rates'!$G$833,'[1]Weekly Ext_Rates'!$G$873)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>3.2672697549804566</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2263865620263061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.681127982651793</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6592960182840635</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.4426441757008881</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6015123244620817</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0887618369093079</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18.742774255575259</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.003589416226429</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9048913157028133</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.665558129991911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.380763366868639</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.387718321125073</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.2990869725053749</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18.221619436565931</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.848566528659374</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14.660465558590964</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.7491305966567907</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>15.33843097020573</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14.950672359520716</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15.335116113330439</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.394851398807432</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.593622735486486</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>15.085073708190903</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20.304568932022079</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19.761578453200041</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>18.12904033767834</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>15.28590107069822</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>16.131771273293516</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>17.981858880299484</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.878771198185113</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.0415236554635285</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.4121827924497659</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.24764791455825383</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.447321207159874</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.101837591791492</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.0475752393821907</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.2183426235731378</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.183536976732821</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5AC9-435B-A402-5E3C89F8E9A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="252221360"/>
-        <c:axId val="252222928"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Milestone Weekly Flowrate</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>([1]Summary!$B$12,[1]Summary!$B$13,[1]Summary!$B$14,[1]Summary!$B$15,[1]Summary!$B$16,[1]Summary!$B$17,[1]Summary!$B$18,[1]Summary!$B$19,[1]Summary!$B$20,[1]Summary!$B$21,[1]Summary!$B$22,[1]Summary!$B$23,[1]Summary!$B$24,[1]Summary!$B$25,[1]Summary!$B$26,[1]Summary!$B$27,[1]Summary!$B$28,[1]Summary!$B$29,[1]Summary!$B$30,[1]Summary!$B$31,[1]Summary!$B$32,[1]Summary!$B$33,[1]Summary!$B$34,[1]Summary!$B$35,[1]Summary!$B$36,[1]Summary!$B$37,[1]Summary!$B$38,[1]Summary!$B$39,[1]Summary!$B$40,[1]Summary!$B$41,[1]Summary!$B$42,[1]Summary!$B$43,[1]Summary!$B$44,[1]Summary!$B$45,[1]Summary!$B$46,[1]Summary!$B$47,[1]Summary!$B$48,[1]Summary!$B$49,[1]Summary!$B$50,[1]Summary!$B$51)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.642361111109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.361805555556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.554166666669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.370138888888</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.397222222222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.643055555556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.479166666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.404861111114</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.544444444444</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.614583333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.366666666669</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.385416666664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.541666666664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.343055555553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.372916666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.630555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.60833333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42429.363888888889</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42436.354166666664</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.369444444441</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.690972222219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Summary!$C$12:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>28.3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>28.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5AC9-435B-A402-5E3C89F8E9A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="252221360"/>
-        <c:axId val="252222928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="252221360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Week Start Date</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252222928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="252222928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Flow</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Rate (GPM)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252221360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="1"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Injection</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('[1]Weekly Inj_Rates'!$H$15,'[1]Weekly Inj_Rates'!$H$34,'[1]Weekly Inj_Rates'!$H$53,'[1]Weekly Inj_Rates'!$H$76,'[1]Weekly Inj_Rates'!$H$91,'[1]Weekly Inj_Rates'!$H$106,'[1]Weekly Inj_Rates'!$H$129,'[1]Weekly Inj_Rates'!$H$144,'[1]Weekly Inj_Rates'!$H$159,'[1]Weekly Inj_Rates'!$H$173,'[1]Weekly Inj_Rates'!$H$184,'[1]Weekly Inj_Rates'!$H$199,'[1]Weekly Inj_Rates'!$H$214,'[1]Weekly Inj_Rates'!$H$225,'[1]Weekly Inj_Rates'!$H$236,'[1]Weekly Inj_Rates'!$H$273,'[1]Weekly Inj_Rates'!$H$288,'[1]Weekly Inj_Rates'!$H$299,'[1]Weekly Inj_Rates'!$H$314,'[1]Weekly Inj_Rates'!$H$329,'[1]Weekly Inj_Rates'!$H$344,'[1]Weekly Inj_Rates'!$H$359,'[1]Weekly Inj_Rates'!$H$370,'[1]Weekly Inj_Rates'!$H$381,'[1]Weekly Inj_Rates'!$H$396,'[1]Weekly Inj_Rates'!$H$411,'[1]Weekly Inj_Rates'!$H$422,'[1]Weekly Inj_Rates'!$H$433,'[1]Weekly Inj_Rates'!$H$457,'[1]Weekly Inj_Rates'!$H$474,'[1]Weekly Inj_Rates'!$H$490,'[1]Weekly Inj_Rates'!$H$502,'[1]Weekly Inj_Rates'!$H$512,'[1]Weekly Inj_Rates'!$H$524,'[1]Weekly Inj_Rates'!$H$540,'[1]Weekly Inj_Rates'!$H$556,'[1]Weekly Inj_Rates'!$H$572,'[1]Weekly Inj_Rates'!$H$584,'[1]Weekly Inj_Rates'!$H$596,'[1]Weekly Inj_Rates'!$H$608)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.697916666664</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.337500000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.321527777778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.665972222225</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.411805555559</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.396527777775</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.379861111112</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.574999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.348611111112</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.527777777781</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.645833333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.334027777775</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.444444444445</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.343055555553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.372916666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.630555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.60833333333</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.474999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.419444444444</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42429.363888888889</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42436.354166666664</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.369444444441</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.690972222219</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('[1]Weekly Inj_Rates'!$I$15,'[1]Weekly Inj_Rates'!$I$34,'[1]Weekly Inj_Rates'!$I$53,'[1]Weekly Inj_Rates'!$I$76,'[1]Weekly Inj_Rates'!$I$91,'[1]Weekly Inj_Rates'!$I$106,'[1]Weekly Inj_Rates'!$I$129,'[1]Weekly Inj_Rates'!$I$144,'[1]Weekly Inj_Rates'!$I$159,'[1]Weekly Inj_Rates'!$I$173,'[1]Weekly Inj_Rates'!$I$184,'[1]Weekly Inj_Rates'!$I$199,'[1]Weekly Inj_Rates'!$I$214,'[1]Weekly Inj_Rates'!$I$225,'[1]Weekly Inj_Rates'!$I$236,'[1]Weekly Inj_Rates'!$I$273,'[1]Weekly Inj_Rates'!$I$288,'[1]Weekly Inj_Rates'!$I$299,'[1]Weekly Inj_Rates'!$I$314,'[1]Weekly Inj_Rates'!$I$329,'[1]Weekly Inj_Rates'!$I$344,'[1]Weekly Inj_Rates'!$I$359,'[1]Weekly Inj_Rates'!$I$370,'[1]Weekly Inj_Rates'!$I$381,'[1]Weekly Inj_Rates'!$I$396,'[1]Weekly Inj_Rates'!$I$411,'[1]Weekly Inj_Rates'!$I$422,'[1]Weekly Inj_Rates'!$I$433,'[1]Weekly Inj_Rates'!$I$457,'[1]Weekly Inj_Rates'!$I$474,'[1]Weekly Inj_Rates'!$I$490,'[1]Weekly Inj_Rates'!$I$502,'[1]Weekly Inj_Rates'!$I$512,'[1]Weekly Inj_Rates'!$I$524,'[1]Weekly Inj_Rates'!$I$540,'[1]Weekly Inj_Rates'!$I$556,'[1]Weekly Inj_Rates'!$I$572,'[1]Weekly Inj_Rates'!$I$584,'[1]Weekly Inj_Rates'!$I$596,'[1]Weekly Inj_Rates'!$I$608)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>18895</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>118955</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>201955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>272675</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>349645</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>453365</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>485955</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>570945</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>672555</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>710025</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>790185</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>916475</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1029415</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1107135</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1205955</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1341495</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1446325</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1552615</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1664195</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1725585</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1807945</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1877449</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1936955</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2033055</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2132725</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2234575</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2308695</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2392805</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2454705</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2608035</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2723745</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2802750</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2842585</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2891785</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2997815</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3104085</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3215385</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3316365</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3416375</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3502995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Extraction</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('[1]Weekly Ext_Rates'!$H$24,'[1]Weekly Ext_Rates'!$H$43,'[1]Weekly Ext_Rates'!$H$62,'[1]Weekly Ext_Rates'!$H$81,'[1]Weekly Ext_Rates'!$H$96,'[1]Weekly Ext_Rates'!$H$115,'[1]Weekly Ext_Rates'!$H$157,'[1]Weekly Ext_Rates'!$H$182,'[1]Weekly Ext_Rates'!$H$206,'[1]Weekly Ext_Rates'!$H$233,'[1]Weekly Ext_Rates'!$H$252,'[1]Weekly Ext_Rates'!$H$276,'[1]Weekly Ext_Rates'!$H$303,'[1]Weekly Ext_Rates'!$H$322,'[1]Weekly Ext_Rates'!$H$341,'[1]Weekly Ext_Rates'!$H$409,'[1]Weekly Ext_Rates'!$H$436,'[1]Weekly Ext_Rates'!$H$463,'[1]Weekly Ext_Rates'!$H$490,'[1]Weekly Ext_Rates'!$H$517,'[1]Weekly Ext_Rates'!$H$544,'[1]Weekly Ext_Rates'!$H$571,'[1]Weekly Ext_Rates'!$H$590,'[1]Weekly Ext_Rates'!$H$601,'[1]Weekly Ext_Rates'!$H$612,'[1]Weekly Ext_Rates'!$H$623,'[1]Weekly Ext_Rates'!$H$634,'[1]Weekly Ext_Rates'!$H$644,'[1]Weekly Ext_Rates'!$H$687,'[1]Weekly Ext_Rates'!$H$698,'[1]Weekly Ext_Rates'!$H$710,'[1]Weekly Ext_Rates'!$H$722,'[1]Weekly Ext_Rates'!$H$734,'[1]Weekly Ext_Rates'!$H$746,'[1]Weekly Ext_Rates'!$H$758,'[1]Weekly Ext_Rates'!$H$785,'[1]Weekly Ext_Rates'!$H$813,'[1]Weekly Ext_Rates'!$H$833,'[1]Weekly Ext_Rates'!$H$853,'[1]Weekly Ext_Rates'!$H$873)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.332638888889</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.318749999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.307638888888</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.674305555556</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.4375</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.405555555553</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.323611111111</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.406944444447</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.34097222222</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.34375</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.557638888888</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.413194444445</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.328472222223</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.523611111108</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.631944444445</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.319444444445</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.456250000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.652777777781</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42373.329861111109</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42380.368055555555</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.585416666669</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42394.638888888891</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.604166666664</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42416.525694444441</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42422.362500000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42431.484027777777</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42438.374305555553</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42443.363194444442</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42450.356944444444</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42457.697916666664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('[1]Weekly Ext_Rates'!$I$24,'[1]Weekly Ext_Rates'!$I$43,'[1]Weekly Ext_Rates'!$I$62,'[1]Weekly Ext_Rates'!$I$81,'[1]Weekly Ext_Rates'!$I$96,'[1]Weekly Ext_Rates'!$I$115,'[1]Weekly Ext_Rates'!$I$157,'[1]Weekly Ext_Rates'!$I$182,'[1]Weekly Ext_Rates'!$I$206,'[1]Weekly Ext_Rates'!$I$233,'[1]Weekly Ext_Rates'!$I$252,'[1]Weekly Ext_Rates'!$I$276,'[1]Weekly Ext_Rates'!$I$303,'[1]Weekly Ext_Rates'!$I$322,'[1]Weekly Ext_Rates'!$I$341,'[1]Weekly Ext_Rates'!$I$409,'[1]Weekly Ext_Rates'!$I$436,'[1]Weekly Ext_Rates'!$I$463,'[1]Weekly Ext_Rates'!$I$490,'[1]Weekly Ext_Rates'!$I$517,'[1]Weekly Ext_Rates'!$I$544,'[1]Weekly Ext_Rates'!$I$571,'[1]Weekly Ext_Rates'!$I$590,'[1]Weekly Ext_Rates'!$I$601,'[1]Weekly Ext_Rates'!$I$612,'[1]Weekly Ext_Rates'!$I$623,'[1]Weekly Ext_Rates'!$I$634,'[1]Weekly Ext_Rates'!$I$644,'[1]Weekly Ext_Rates'!$I$687,'[1]Weekly Ext_Rates'!$I$698,'[1]Weekly Ext_Rates'!$I$710,'[1]Weekly Ext_Rates'!$I$722,'[1]Weekly Ext_Rates'!$I$734,'[1]Weekly Ext_Rates'!$I$746,'[1]Weekly Ext_Rates'!$I$758,'[1]Weekly Ext_Rates'!$I$785,'[1]Weekly Ext_Rates'!$I$813,'[1]Weekly Ext_Rates'!$I$833,'[1]Weekly Ext_Rates'!$I$853,'[1]Weekly Ext_Rates'!$I$873)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>22273.999999999985</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>133659.39999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>209343.39999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>274552.59999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>325636.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>382676.69999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433876.79999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>561744.39999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>683563.99999999988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>767860.79999999981</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>915424.99999999988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1039852.0999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1149129.7999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1213271.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1394150.1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1599458</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1746999.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1840336.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1991095.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2138057.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2290935.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2423252.2999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2537878</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2651110</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2859099.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3049391.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3235591.7999999993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3394088.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3549209.9999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3731366.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3906784.6999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3998587.5999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4086870.1999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4088268.0999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4209841.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4449039</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4569572.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4673767.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4846316.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4955273.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>RPW 6/7</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$G$10,[1]WeeklyRPWs!$G$21,[1]WeeklyRPWs!$G$32,[1]WeeklyRPWs!$G$43,[1]WeeklyRPWs!$G$52,[1]WeeklyRPWs!$G$61,[1]WeeklyRPWs!$G$68,[1]WeeklyRPWs!$G$79,[1]WeeklyRPWs!$G$88,[1]WeeklyRPWs!$G$97,[1]WeeklyRPWs!$G$104,[1]WeeklyRPWs!$G$113,[1]WeeklyRPWs!$G$122,[1]WeeklyRPWs!$G$129,[1]WeeklyRPWs!$G$136,[1]WeeklyRPWs!$G$157,[1]WeeklyRPWs!$G$166,[1]WeeklyRPWs!$G$173,[1]WeeklyRPWs!$G$182,[1]WeeklyRPWs!$G$191,[1]WeeklyRPWs!$G$200,[1]WeeklyRPWs!$G$209,[1]WeeklyRPWs!$G$216,[1]WeeklyRPWs!$G$223,[1]WeeklyRPWs!$G$232,[1]WeeklyRPWs!$G$241,[1]WeeklyRPWs!$G$258,[1]WeeklyRPWs!$G$268,[1]WeeklyRPWs!$G$278,[1]WeeklyRPWs!$G$288,[1]WeeklyRPWs!$G$294,[1]WeeklyRPWs!$G$302,[1]WeeklyRPWs!$G$312,[1]WeeklyRPWs!$G$322,[1]WeeklyRPWs!$G$332,[1]WeeklyRPWs!$G$340,[1]WeeklyRPWs!$G$348,[1]WeeklyRPWs!$G$356)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233.436111111114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.31527777778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.331944444442</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.342361111114</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.709027777775</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.489583333336</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.601388888892</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.349305555559</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.37222222222</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.387499999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.365972222222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.583333333336</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.590277777781</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.384722222225</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.54791666667</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.605555555558</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.347916666666</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42373.241666666669</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42380.39166666667</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42387.598611111112</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42394.64166666667</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42412.586805555555</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42419.380555555559</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42426.347222222219</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42433.659722222219</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42440.338888888888</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42446.364583333336</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42453.664583333331</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42459.40625</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$H$10,[1]WeeklyRPWs!$H$21,[1]WeeklyRPWs!$H$32,[1]WeeklyRPWs!$H$43,[1]WeeklyRPWs!$H$52,[1]WeeklyRPWs!$H$61,[1]WeeklyRPWs!$H$68,[1]WeeklyRPWs!$H$79,[1]WeeklyRPWs!$H$88,[1]WeeklyRPWs!$H$97,[1]WeeklyRPWs!$H$104,[1]WeeklyRPWs!$H$113,[1]WeeklyRPWs!$H$122,[1]WeeklyRPWs!$H$129,[1]WeeklyRPWs!$H$136,[1]WeeklyRPWs!$H$157,[1]WeeklyRPWs!$H$166,[1]WeeklyRPWs!$H$173,[1]WeeklyRPWs!$H$182,[1]WeeklyRPWs!$H$191,[1]WeeklyRPWs!$H$200,[1]WeeklyRPWs!$H$209,[1]WeeklyRPWs!$H$216,[1]WeeklyRPWs!$H$223,[1]WeeklyRPWs!$H$232,[1]WeeklyRPWs!$H$241,[1]WeeklyRPWs!$H$258,[1]WeeklyRPWs!$H$268,[1]WeeklyRPWs!$H$278,[1]WeeklyRPWs!$H$288,[1]WeeklyRPWs!$H$294,[1]WeeklyRPWs!$H$302,[1]WeeklyRPWs!$H$312,[1]WeeklyRPWs!$H$322,[1]WeeklyRPWs!$H$332,[1]WeeklyRPWs!$H$340,[1]WeeklyRPWs!$H$348,[1]WeeklyRPWs!$H$356)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
-                <c:pt idx="0">
-                  <c:v>10754</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>204514</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>277014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>350404</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>454764</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>481214</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>577804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>679164</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>716134</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>799024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>926324</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1038664</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1119664</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1219084</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1357674</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1463894</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1573164</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1687924</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1751584</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1835834</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1907644</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1966244</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2065194</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2167604</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2270344</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2495294</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2652594</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2771274</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2850884</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2896754</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2941344</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3049034</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3257274</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3271640</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3376094</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3477554</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3565634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>RPW 3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$G$376,[1]WeeklyRPWs!$G$383,[1]WeeklyRPWs!$G$390,[1]WeeklyRPWs!$G$397,[1]WeeklyRPWs!$G$403,[1]WeeklyRPWs!$G$410,[1]WeeklyRPWs!$G$417,[1]WeeklyRPWs!$G$424,[1]WeeklyRPWs!$G$430,[1]WeeklyRPWs!$G$436,[1]WeeklyRPWs!$G$441,[1]WeeklyRPWs!$G$447,[1]WeeklyRPWs!$G$453,[1]WeeklyRPWs!$G$458,[1]WeeklyRPWs!$G$463,[1]WeeklyRPWs!$G$475,[1]WeeklyRPWs!$G$481,[1]WeeklyRPWs!$G$486,[1]WeeklyRPWs!$G$492,[1]WeeklyRPWs!$G$497,[1]WeeklyRPWs!$G$503,[1]WeeklyRPWs!$G$509,[1]WeeklyRPWs!$G$514,[1]WeeklyRPWs!$G$519,[1]WeeklyRPWs!$G$526,[1]WeeklyRPWs!$G$532,[1]WeeklyRPWs!$G$537,[1]WeeklyRPWs!$G$542,[1]WeeklyRPWs!$G$553,[1]WeeklyRPWs!$G$560,[1]WeeklyRPWs!$G$566,[1]WeeklyRPWs!$G$573,[1]WeeklyRPWs!$G$578,[1]WeeklyRPWs!$G$584,[1]WeeklyRPWs!$G$591,[1]WeeklyRPWs!$G$598,[1]WeeklyRPWs!$G$605,[1]WeeklyRPWs!$G$611,[1]WeeklyRPWs!$G$617,[1]WeeklyRPWs!$G$623)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>42170</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42177</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42184</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42198</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42219</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>42226</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42233.417361111111</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42240.6875</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>42249.329861111109</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>42254.357638888891</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42261.355555555558</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42268.652777777781</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>42275.429166666669</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>42279.642361111109</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42289.361805555556</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>42296.554166666669</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>42303.370138888888</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>42310.397222222222</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42317.643055555556</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42324.479166666664</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>42331.404861111114</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>42338.544444444444</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>42345.614583333336</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>42352.366666666669</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42359.385416666664</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>42366.541666666664</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>42375.459027777775</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>42382.393750000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>42387.613888888889</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42396.6875</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>42412.620138888888</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>42419.390277777777</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42426.379166666666</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42433.636805555558</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42440.352083333331</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>42446.476388888892</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42453.62222222222</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42459.449305555558</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>([1]WeeklyRPWs!$H$376,[1]WeeklyRPWs!$H$383,[1]WeeklyRPWs!$H$390,[1]WeeklyRPWs!$H$397,[1]WeeklyRPWs!$H$403,[1]WeeklyRPWs!$H$410,[1]WeeklyRPWs!$H$417,[1]WeeklyRPWs!$H$424,[1]WeeklyRPWs!$H$430,[1]WeeklyRPWs!$H$436,[1]WeeklyRPWs!$H$441,[1]WeeklyRPWs!$H$447,[1]WeeklyRPWs!$H$453,[1]WeeklyRPWs!$H$458,[1]WeeklyRPWs!$H$463,[1]WeeklyRPWs!$H$475,[1]WeeklyRPWs!$H$481,[1]WeeklyRPWs!$H$486,[1]WeeklyRPWs!$H$492,[1]WeeklyRPWs!$H$497,[1]WeeklyRPWs!$H$503,[1]WeeklyRPWs!$H$509,[1]WeeklyRPWs!$H$514,[1]WeeklyRPWs!$H$519,[1]WeeklyRPWs!$H$526,[1]WeeklyRPWs!$H$532,[1]WeeklyRPWs!$H$537,[1]WeeklyRPWs!$H$542,[1]WeeklyRPWs!$H$553,[1]WeeklyRPWs!$H$560,[1]WeeklyRPWs!$H$566,[1]WeeklyRPWs!$H$573,[1]WeeklyRPWs!$H$578,[1]WeeklyRPWs!$H$584,[1]WeeklyRPWs!$H$591,[1]WeeklyRPWs!$H$598,[1]WeeklyRPWs!$H$605,[1]WeeklyRPWs!$H$611,[1]WeeklyRPWs!$H$617,[1]WeeklyRPWs!$H$623)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
-                <c:pt idx="0">
-                  <c:v>14450</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>109190</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>171280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>224040</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262460</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>312730</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>348150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>433230</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>535270</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>602680</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>725250</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>826190</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>916100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>966410</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1111920</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1270930</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1377930</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1446550</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1570210</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1645810</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1781150</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1873580</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1958100</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2130380</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2274240</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2400870</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2494300</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2594770</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2768390</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2866120</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2964770</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3021042</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3038380</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3080210</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3190010</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3310430</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3426840</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3529310</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3644870</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3719350</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-69C2-4AF4-909A-A162B281BE51}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="252222144"/>
-        <c:axId val="252224496"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="252222144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="42461"/>
-          <c:min val="42170"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Date</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252224496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="252224496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Cumulative Volume (Gallon)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="252222144"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666189" cy="6292746"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.71179</cdr:x>
-      <cdr:y>0.75317</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.96846</cdr:x>
-      <cdr:y>0.86193</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="6168530" y="4739499"/>
-          <a:ext cx="2224351" cy="684399"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Milestone Volume: 15,000,000 Gal</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Total Volume: 60,000,000 Gal</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4323,330 +342,7 @@
       <sheetName val="Weekly Ext_Rates"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="12">
-          <cell r="B12">
-            <v>42170</v>
-          </cell>
-          <cell r="C12">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>42177</v>
-          </cell>
-          <cell r="C13">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>42184</v>
-          </cell>
-          <cell r="C14">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>42198</v>
-          </cell>
-          <cell r="C15">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>42205</v>
-          </cell>
-          <cell r="C16">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>42212</v>
-          </cell>
-          <cell r="C17">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>42219</v>
-          </cell>
-          <cell r="C18">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>42226</v>
-          </cell>
-          <cell r="C19">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>42233</v>
-          </cell>
-          <cell r="C20">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>42240</v>
-          </cell>
-          <cell r="C21">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>42249</v>
-          </cell>
-          <cell r="C22">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>42254</v>
-          </cell>
-          <cell r="C23">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>42261</v>
-          </cell>
-          <cell r="C24">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>42268</v>
-          </cell>
-          <cell r="C25">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>42275</v>
-          </cell>
-          <cell r="C26">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>42279.642361111109</v>
-          </cell>
-          <cell r="C27">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>42289.361805555556</v>
-          </cell>
-          <cell r="C28">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>42296.554166666669</v>
-          </cell>
-          <cell r="C29">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>42303.370138888888</v>
-          </cell>
-          <cell r="C30">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>42310.397222222222</v>
-          </cell>
-          <cell r="C31">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>42317.643055555556</v>
-          </cell>
-          <cell r="C32">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>42324.479166666664</v>
-          </cell>
-          <cell r="C33">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>42331.404861111114</v>
-          </cell>
-          <cell r="C34">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>42338.544444444444</v>
-          </cell>
-          <cell r="C35">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>42345.614583333336</v>
-          </cell>
-          <cell r="C36">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>42352.366666666669</v>
-          </cell>
-          <cell r="C37">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>42359.385416666664</v>
-          </cell>
-          <cell r="C38">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>42366.541666666664</v>
-          </cell>
-          <cell r="C39">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>42373.343055555553</v>
-          </cell>
-          <cell r="C40">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>42380.372916666667</v>
-          </cell>
-          <cell r="C41">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>42387.590277777781</v>
-          </cell>
-          <cell r="C42">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>42394.630555555559</v>
-          </cell>
-          <cell r="C43">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>42412.60833333333</v>
-          </cell>
-          <cell r="C44">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>42416.474999999999</v>
-          </cell>
-          <cell r="C45">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>42422.419444444444</v>
-          </cell>
-          <cell r="C46">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>42429.363888888889</v>
-          </cell>
-          <cell r="C47">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>42436.354166666664</v>
-          </cell>
-          <cell r="C48">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>42443.369444444441</v>
-          </cell>
-          <cell r="C49">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>42450.362500000003</v>
-          </cell>
-          <cell r="C50">
-            <v>28.3</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>42457.690972222219</v>
-          </cell>
-          <cell r="C51">
-            <v>28.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4">
         <row r="10">
@@ -5280,9 +976,6 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9">
         <row r="15">
-          <cell r="F15">
-            <v>2.7821275199704827</v>
-          </cell>
           <cell r="H15">
             <v>42170</v>
           </cell>
@@ -5291,9 +984,6 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="F34">
-            <v>8.2738590871807975</v>
-          </cell>
           <cell r="H34">
             <v>42177</v>
           </cell>
@@ -5302,9 +992,6 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="F53">
-            <v>15.010187636507489</v>
-          </cell>
           <cell r="H53">
             <v>42184</v>
           </cell>
@@ -5313,9 +1000,6 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="F76">
-            <v>2.8873844598842138</v>
-          </cell>
           <cell r="H76">
             <v>42198</v>
           </cell>
@@ -5324,9 +1008,6 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="F91">
-            <v>11.170580026137818</v>
-          </cell>
           <cell r="H91">
             <v>42205</v>
           </cell>
@@ -5335,9 +1016,6 @@
           </cell>
         </row>
         <row r="106">
-          <cell r="F106">
-            <v>10.179576465248022</v>
-          </cell>
           <cell r="H106">
             <v>42212</v>
           </cell>
@@ -5346,9 +1024,6 @@
           </cell>
         </row>
         <row r="129">
-          <cell r="F129">
-            <v>2.9035226872961455</v>
-          </cell>
           <cell r="H129">
             <v>42219</v>
           </cell>
@@ -5357,9 +1032,6 @@
           </cell>
         </row>
         <row r="144">
-          <cell r="F144">
-            <v>9.6505406439582639</v>
-          </cell>
           <cell r="H144">
             <v>42226</v>
           </cell>
@@ -5368,9 +1040,6 @@
           </cell>
         </row>
         <row r="159">
-          <cell r="F159">
-            <v>10.04225189703266</v>
-          </cell>
           <cell r="H159">
             <v>42233</v>
           </cell>
@@ -5386,22 +1055,12 @@
             <v>710025</v>
           </cell>
         </row>
-        <row r="174">
-          <cell r="F174">
-            <v>3.7651240421730465</v>
-          </cell>
-        </row>
         <row r="184">
           <cell r="H184">
             <v>42249.337500000001</v>
           </cell>
           <cell r="I184">
             <v>790185</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="F185">
-            <v>7.9878114225998189</v>
           </cell>
         </row>
         <row r="199">
@@ -5412,22 +1071,12 @@
             <v>916475</v>
           </cell>
         </row>
-        <row r="200">
-          <cell r="F200">
-            <v>12.573319233362334</v>
-          </cell>
-        </row>
         <row r="214">
           <cell r="H214">
             <v>42261.321527777778</v>
           </cell>
           <cell r="I214">
             <v>1029415</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="F215">
-            <v>10.800192189557835</v>
           </cell>
         </row>
         <row r="225">
@@ -5438,11 +1087,6 @@
             <v>1107135</v>
           </cell>
         </row>
-        <row r="226">
-          <cell r="F226">
-            <v>11.112383850729181</v>
-          </cell>
-        </row>
         <row r="236">
           <cell r="H236">
             <v>42275.436111111114</v>
@@ -5451,15 +1095,7 @@
             <v>1205955</v>
           </cell>
         </row>
-        <row r="237">
-          <cell r="F237">
-            <v>9.9515304791015975</v>
-          </cell>
-        </row>
         <row r="273">
-          <cell r="F273">
-            <v>10.470052459141662</v>
-          </cell>
           <cell r="H273">
             <v>42279.411805555559</v>
           </cell>
@@ -5468,9 +1104,6 @@
           </cell>
         </row>
         <row r="288">
-          <cell r="F288">
-            <v>10.417876492873519</v>
-          </cell>
           <cell r="H288">
             <v>42289.338888888888</v>
           </cell>
@@ -5479,9 +1112,6 @@
           </cell>
         </row>
         <row r="299">
-          <cell r="F299">
-            <v>10.021841692803909</v>
-          </cell>
           <cell r="H299">
             <v>42296.396527777775</v>
           </cell>
@@ -5490,9 +1120,6 @@
           </cell>
         </row>
         <row r="314">
-          <cell r="F314">
-            <v>11.281883257078803</v>
-          </cell>
           <cell r="H314">
             <v>42303.357638888891</v>
           </cell>
@@ -5501,9 +1128,6 @@
           </cell>
         </row>
         <row r="329">
-          <cell r="F329">
-            <v>6.2454895291370374</v>
-          </cell>
           <cell r="H329">
             <v>42310.379861111112</v>
           </cell>
@@ -5512,9 +1136,6 @@
           </cell>
         </row>
         <row r="344">
-          <cell r="F344">
-            <v>8.2552420037894336</v>
-          </cell>
           <cell r="H344">
             <v>42317.574999999997</v>
           </cell>
@@ -5523,9 +1144,6 @@
           </cell>
         </row>
         <row r="359">
-          <cell r="F359">
-            <v>6.8309586186339732</v>
-          </cell>
           <cell r="H359">
             <v>42324.416666666664</v>
           </cell>
@@ -5534,9 +1152,6 @@
           </cell>
         </row>
         <row r="370">
-          <cell r="F370">
-            <v>8.3609436559622345</v>
-          </cell>
           <cell r="H370">
             <v>42331.348611111112</v>
           </cell>
@@ -5545,9 +1160,6 @@
           </cell>
         </row>
         <row r="381">
-          <cell r="F381">
-            <v>7.2161212072577552</v>
-          </cell>
           <cell r="H381">
             <v>42338.527777777781</v>
           </cell>
@@ -5556,9 +1168,6 @@
           </cell>
         </row>
         <row r="396">
-          <cell r="F396">
-            <v>10.017457407124313</v>
-          </cell>
           <cell r="H396">
             <v>42345.645833333336</v>
           </cell>
@@ -5567,9 +1176,6 @@
           </cell>
         </row>
         <row r="411">
-          <cell r="F411">
-            <v>10.329247811635588</v>
-          </cell>
           <cell r="H411">
             <v>42352.334027777775</v>
           </cell>
@@ -5578,9 +1184,6 @@
           </cell>
         </row>
         <row r="422">
-          <cell r="F422">
-            <v>9.6209627059695375</v>
-          </cell>
           <cell r="H422">
             <v>42359.444444444445</v>
           </cell>
@@ -5589,9 +1192,6 @@
           </cell>
         </row>
         <row r="433">
-          <cell r="F433">
-            <v>8.6400200693113618</v>
-          </cell>
           <cell r="H433">
             <v>42366.636805555558</v>
           </cell>
@@ -5600,9 +1200,6 @@
           </cell>
         </row>
         <row r="457">
-          <cell r="F457">
-            <v>8.7465973406725475</v>
-          </cell>
           <cell r="H457">
             <v>42373.343055555553</v>
           </cell>
@@ -5611,9 +1208,6 @@
           </cell>
         </row>
         <row r="474">
-          <cell r="F474">
-            <v>7.8992782515202009</v>
-          </cell>
           <cell r="H474">
             <v>42380.372916666667</v>
           </cell>
@@ -5622,9 +1216,6 @@
           </cell>
         </row>
         <row r="490">
-          <cell r="F490">
-            <v>9.6994729205628918</v>
-          </cell>
           <cell r="H490">
             <v>42387.590277777781</v>
           </cell>
@@ -5633,9 +1224,6 @@
           </cell>
         </row>
         <row r="502">
-          <cell r="F502">
-            <v>7.9441916008219877</v>
-          </cell>
           <cell r="H502">
             <v>42394.630555555559</v>
           </cell>
@@ -5644,9 +1232,6 @@
           </cell>
         </row>
         <row r="512">
-          <cell r="F512">
-            <v>1.9442490747946204</v>
-          </cell>
           <cell r="H512">
             <v>42412.60833333333</v>
           </cell>
@@ -5655,9 +1240,6 @@
           </cell>
         </row>
         <row r="524">
-          <cell r="F524">
-            <v>5.0652264007660497</v>
-          </cell>
           <cell r="H524">
             <v>42416.474999999999</v>
           </cell>
@@ -5666,9 +1248,6 @@
           </cell>
         </row>
         <row r="540">
-          <cell r="F540">
-            <v>8.6023794035489161</v>
-          </cell>
           <cell r="H540">
             <v>42422.419444444444</v>
           </cell>
@@ -5677,9 +1256,6 @@
           </cell>
         </row>
         <row r="556">
-          <cell r="F556">
-            <v>8.5930296352042888</v>
-          </cell>
           <cell r="H556">
             <v>42429.363888888889</v>
           </cell>
@@ -5688,9 +1264,6 @@
           </cell>
         </row>
         <row r="572">
-          <cell r="F572">
-            <v>9.7476274898294957</v>
-          </cell>
           <cell r="H572">
             <v>42436.354166666664</v>
           </cell>
@@ -5699,9 +1272,6 @@
           </cell>
         </row>
         <row r="584">
-          <cell r="F584">
-            <v>11.642572161952504</v>
-          </cell>
           <cell r="H584">
             <v>42443.369444444441</v>
           </cell>
@@ -5710,9 +1280,6 @@
           </cell>
         </row>
         <row r="596">
-          <cell r="F596">
-            <v>9.5059476906740557</v>
-          </cell>
           <cell r="H596">
             <v>42450.362500000003</v>
           </cell>
@@ -5721,9 +1288,6 @@
           </cell>
         </row>
         <row r="608">
-          <cell r="F608">
-            <v>10.488972485560243</v>
-          </cell>
           <cell r="H608">
             <v>42457.690972222219</v>
           </cell>
@@ -5734,9 +1298,6 @@
       </sheetData>
       <sheetData sheetId="10">
         <row r="24">
-          <cell r="G24">
-            <v>3.2672697549804566</v>
-          </cell>
           <cell r="H24">
             <v>42170</v>
           </cell>
@@ -5745,9 +1306,6 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="G43">
-            <v>9.2263865620263061</v>
-          </cell>
           <cell r="H43">
             <v>42177</v>
           </cell>
@@ -5756,9 +1314,6 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="G62">
-            <v>13.681127982651793</v>
-          </cell>
           <cell r="H62">
             <v>42184</v>
           </cell>
@@ -5767,9 +1322,6 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="G81">
-            <v>2.6592960182840635</v>
-          </cell>
           <cell r="H81">
             <v>42198</v>
           </cell>
@@ -5778,9 +1330,6 @@
           </cell>
         </row>
         <row r="96">
-          <cell r="G96">
-            <v>7.4426441757008881</v>
-          </cell>
           <cell r="H96">
             <v>42205</v>
           </cell>
@@ -5789,9 +1338,6 @@
           </cell>
         </row>
         <row r="115">
-          <cell r="G115">
-            <v>5.6015123244620817</v>
-          </cell>
           <cell r="H115">
             <v>42212</v>
           </cell>
@@ -5800,9 +1346,6 @@
           </cell>
         </row>
         <row r="157">
-          <cell r="G157">
-            <v>5.0887618369093079</v>
-          </cell>
           <cell r="H157">
             <v>42219</v>
           </cell>
@@ -5811,9 +1354,6 @@
           </cell>
         </row>
         <row r="182">
-          <cell r="G182">
-            <v>18.742774255575259</v>
-          </cell>
           <cell r="H182">
             <v>42226</v>
           </cell>
@@ -5822,9 +1362,6 @@
           </cell>
         </row>
         <row r="206">
-          <cell r="G206">
-            <v>12.003589416226429</v>
-          </cell>
           <cell r="H206">
             <v>42233</v>
           </cell>
@@ -5833,9 +1370,6 @@
           </cell>
         </row>
         <row r="233">
-          <cell r="G233">
-            <v>7.9048913157028133</v>
-          </cell>
           <cell r="H233">
             <v>42240.75</v>
           </cell>
@@ -5844,9 +1378,6 @@
           </cell>
         </row>
         <row r="252">
-          <cell r="G252">
-            <v>14.665558129991911</v>
-          </cell>
           <cell r="H252">
             <v>42249.332638888889</v>
           </cell>
@@ -5855,9 +1386,6 @@
           </cell>
         </row>
         <row r="276">
-          <cell r="G276">
-            <v>12.380763366868639</v>
-          </cell>
           <cell r="H276">
             <v>42254.318749999999</v>
           </cell>
@@ -5866,9 +1394,6 @@
           </cell>
         </row>
         <row r="303">
-          <cell r="G303">
-            <v>10.387718321125073</v>
-          </cell>
           <cell r="H303">
             <v>42261.307638888888</v>
           </cell>
@@ -5877,9 +1402,6 @@
           </cell>
         </row>
         <row r="322">
-          <cell r="G322">
-            <v>9.2990869725053749</v>
-          </cell>
           <cell r="H322">
             <v>42268.674305555556</v>
           </cell>
@@ -5888,9 +1410,6 @@
           </cell>
         </row>
         <row r="341">
-          <cell r="G341">
-            <v>18.221619436565931</v>
-          </cell>
           <cell r="H341">
             <v>42275.4375</v>
           </cell>
@@ -5899,9 +1418,6 @@
           </cell>
         </row>
         <row r="409">
-          <cell r="G409">
-            <v>15.848566528659374</v>
-          </cell>
           <cell r="H409">
             <v>42279.405555555553</v>
           </cell>
@@ -5910,9 +1426,6 @@
           </cell>
         </row>
         <row r="436">
-          <cell r="G436">
-            <v>14.660465558590964</v>
-          </cell>
           <cell r="H436">
             <v>42289.323611111111</v>
           </cell>
@@ -5921,9 +1434,6 @@
           </cell>
         </row>
         <row r="463">
-          <cell r="G463">
-            <v>8.7491305966567907</v>
-          </cell>
           <cell r="H463">
             <v>42296.406944444447</v>
           </cell>
@@ -5932,9 +1442,6 @@
           </cell>
         </row>
         <row r="490">
-          <cell r="G490">
-            <v>15.33843097020573</v>
-          </cell>
           <cell r="H490">
             <v>42303.34097222222</v>
           </cell>
@@ -5943,9 +1450,6 @@
           </cell>
         </row>
         <row r="517">
-          <cell r="G517">
-            <v>14.950672359520716</v>
-          </cell>
           <cell r="H517">
             <v>42310.34375</v>
           </cell>
@@ -5954,9 +1458,6 @@
           </cell>
         </row>
         <row r="544">
-          <cell r="G544">
-            <v>15.335116113330439</v>
-          </cell>
           <cell r="H544">
             <v>42317.557638888888</v>
           </cell>
@@ -5965,9 +1466,6 @@
           </cell>
         </row>
         <row r="571">
-          <cell r="G571">
-            <v>13.394851398807432</v>
-          </cell>
           <cell r="H571">
             <v>42324.413194444445</v>
           </cell>
@@ -5976,9 +1474,6 @@
           </cell>
         </row>
         <row r="590">
-          <cell r="G590">
-            <v>15.593622735486486</v>
-          </cell>
           <cell r="H590">
             <v>42331.328472222223</v>
           </cell>
@@ -5987,9 +1482,6 @@
           </cell>
         </row>
         <row r="601">
-          <cell r="G601">
-            <v>15.085073708190903</v>
-          </cell>
           <cell r="H601">
             <v>42338.523611111108</v>
           </cell>
@@ -5998,9 +1490,6 @@
           </cell>
         </row>
         <row r="612">
-          <cell r="G612">
-            <v>20.304568932022079</v>
-          </cell>
           <cell r="H612">
             <v>42345.631944444445</v>
           </cell>
@@ -6009,9 +1498,6 @@
           </cell>
         </row>
         <row r="623">
-          <cell r="G623">
-            <v>19.761578453200041</v>
-          </cell>
           <cell r="H623">
             <v>42352.319444444445</v>
           </cell>
@@ -6020,9 +1506,6 @@
           </cell>
         </row>
         <row r="634">
-          <cell r="G634">
-            <v>18.12904033767834</v>
-          </cell>
           <cell r="H634">
             <v>42359.456250000003</v>
           </cell>
@@ -6031,9 +1514,6 @@
           </cell>
         </row>
         <row r="644">
-          <cell r="G644">
-            <v>15.28590107069822</v>
-          </cell>
           <cell r="H644">
             <v>42366.652777777781</v>
           </cell>
@@ -6042,9 +1522,6 @@
           </cell>
         </row>
         <row r="687">
-          <cell r="G687">
-            <v>16.131771273293516</v>
-          </cell>
           <cell r="H687">
             <v>42373.329861111109</v>
           </cell>
@@ -6053,9 +1530,6 @@
           </cell>
         </row>
         <row r="698">
-          <cell r="G698">
-            <v>17.981858880299484</v>
-          </cell>
           <cell r="H698">
             <v>42380.368055555555</v>
           </cell>
@@ -6064,9 +1538,6 @@
           </cell>
         </row>
         <row r="710">
-          <cell r="G710">
-            <v>16.878771198185113</v>
-          </cell>
           <cell r="H710">
             <v>42387.585416666669</v>
           </cell>
@@ -6075,9 +1546,6 @@
           </cell>
         </row>
         <row r="722">
-          <cell r="G722">
-            <v>9.0415236554635285</v>
-          </cell>
           <cell r="H722">
             <v>42394.638888888891</v>
           </cell>
@@ -6086,9 +1554,6 @@
           </cell>
         </row>
         <row r="734">
-          <cell r="G734">
-            <v>3.4121827924497659</v>
-          </cell>
           <cell r="H734">
             <v>42412.604166666664</v>
           </cell>
@@ -6097,9 +1562,6 @@
           </cell>
         </row>
         <row r="746">
-          <cell r="G746">
-            <v>0.24764791455825383</v>
-          </cell>
           <cell r="H746">
             <v>42416.525694444441</v>
           </cell>
@@ -6108,9 +1570,6 @@
           </cell>
         </row>
         <row r="758">
-          <cell r="G758">
-            <v>14.447321207159874</v>
-          </cell>
           <cell r="H758">
             <v>42422.362500000003</v>
           </cell>
@@ -6119,9 +1578,6 @@
           </cell>
         </row>
         <row r="785">
-          <cell r="G785">
-            <v>5.101837591791492</v>
-          </cell>
           <cell r="H785">
             <v>42431.484027777777</v>
           </cell>
@@ -6130,9 +1586,6 @@
           </cell>
         </row>
         <row r="813">
-          <cell r="G813">
-            <v>6.0475752393821907</v>
-          </cell>
           <cell r="H813">
             <v>42438.374305555553</v>
           </cell>
@@ -6141,9 +1594,6 @@
           </cell>
         </row>
         <row r="833">
-          <cell r="G833">
-            <v>6.2183426235731378</v>
-          </cell>
           <cell r="H833">
             <v>42443.363194444442</v>
           </cell>
@@ -6160,9 +1610,6 @@
           </cell>
         </row>
         <row r="873">
-          <cell r="G873">
-            <v>6.183536976732821</v>
-          </cell>
           <cell r="H873">
             <v>42457.697916666664</v>
           </cell>
@@ -6444,7 +1891,7 @@
   </sheetPr>
   <dimension ref="A1:I1488"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E597" sqref="E597"/>
       <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
